--- a/xlsx/福音音乐_intext.xlsx
+++ b/xlsx/福音音乐_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AD%8C</t>
   </si>
   <si>
-    <t>聖歌</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_福音音乐</t>
+    <t>圣歌</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_福音音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%B5%E6%AD%8C</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%94%B1</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E7%90%B4</t>
   </si>
   <si>
-    <t>鋼琴</t>
+    <t>钢琴</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hammond_organ</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B9%E5%A5%8F%E6%A8%82%E5%99%A8</t>
   </si>
   <si>
-    <t>吹奏樂器</t>
+    <t>吹奏乐器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BC%93</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%96%AF%E5%90%89%E4%BB%96</t>
   </si>
   <si>
-    <t>貝斯吉他</t>
+    <t>贝斯吉他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E5%A5%8F%E8%97%8D%E8%AA%BF</t>
   </si>
   <si>
-    <t>節奏藍調</t>
+    <t>节奏蓝调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Yes</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A5%B4</t>
   </si>
   <si>
-    <t>農奴</t>
+    <t>农奴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%95%B0%E6%81%A9%E5%85%B8</t>
   </si>
   <si>
-    <t>奇異恩典</t>
+    <t>奇异恩典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%89%9B%E9%A1%BF</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%B8%AB</t>
   </si>
   <si>
-    <t>牧師</t>
+    <t>牧师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E9%9F%B3%E4%B9%90</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E9%A1%9E%E5%9E%8B</t>
   </si>
   <si>
-    <t>音樂類型</t>
+    <t>音乐类型</t>
   </si>
 </sst>
 </file>
